--- a/target/test-classes/MasterData.xlsx
+++ b/target/test-classes/MasterData.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="JourneyScreenOneforIndain" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="JourneyScreenOneforNRI" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="JourneyScreenTwo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="VerifyOTP" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -60,24 +62,136 @@
     <t xml:space="preserve">669228772880</t>
   </si>
   <si>
+    <t xml:space="preserve">CEZPK2904p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9873901989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navneet@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98760987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">669238226887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEZPK2879k</t>
+  </si>
+  <si>
     <t xml:space="preserve">CEZPK29019</t>
   </si>
   <si>
-    <t xml:space="preserve">9873901989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navneet@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98760987</t>
+    <t xml:space="preserve">firstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateOfBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">houseNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road/area/sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">villageTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternateMobileNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestFirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestLastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/08/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestHoseNo/AptName/Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestRoad/Area/Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestVillage/Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -156,7 +270,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +285,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -255,16 +377,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.43"/>
@@ -305,9 +427,27 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="navneet@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="navneet@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -326,11 +466,14 @@
   </sheetPr>
   <dimension ref="D1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="3" t="s">
@@ -354,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
@@ -378,4 +521,176 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/target/test-classes/MasterData.xlsx
+++ b/target/test-classes/MasterData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="JourneyScreenOneforNRI" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="JourneyScreenTwo" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="VerifyOTP" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="JourneyScreenThree" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -183,6 +184,24 @@
   </si>
   <si>
     <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. N. K. Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. M K. Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000000</t>
   </si>
 </sst>
 </file>
@@ -379,7 +398,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +550,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -693,4 +712,54 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>